--- a/downloads/linked_ratio.xlsx
+++ b/downloads/linked_ratio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="506">
   <si>
     <t>clinique_sku</t>
   </si>
@@ -37,280 +37,289 @@
     <t>clinique_url</t>
   </si>
   <si>
+    <t>KJ8H01</t>
+  </si>
+  <si>
+    <t>Z9FF0A</t>
+  </si>
+  <si>
+    <t>6TCR01</t>
+  </si>
+  <si>
     <t>K6KW01</t>
   </si>
   <si>
     <t>V2Y701</t>
   </si>
   <si>
-    <t>6TCR01</t>
+    <t>V16K01</t>
+  </si>
+  <si>
+    <t>V19320</t>
+  </si>
+  <si>
+    <t>V16H11</t>
   </si>
   <si>
     <t>6FWR01</t>
   </si>
   <si>
+    <t>KF5441</t>
+  </si>
+  <si>
+    <t>K4XH01</t>
+  </si>
+  <si>
+    <t>7LYW01</t>
+  </si>
+  <si>
+    <t>V17510</t>
+  </si>
+  <si>
+    <t>7KYL02</t>
+  </si>
+  <si>
+    <t>645J01</t>
+  </si>
+  <si>
+    <t>V82P01</t>
+  </si>
+  <si>
+    <t>KEX901</t>
+  </si>
+  <si>
+    <t>V20Q03</t>
+  </si>
+  <si>
+    <t>6FW203</t>
+  </si>
+  <si>
+    <t>VCWG3W</t>
+  </si>
+  <si>
+    <t>KNXW41</t>
+  </si>
+  <si>
+    <t>VCX001</t>
+  </si>
+  <si>
+    <t>KGMR04</t>
+  </si>
+  <si>
+    <t>6CLW01</t>
+  </si>
+  <si>
+    <t>V68K07</t>
+  </si>
+  <si>
+    <t>V19P01</t>
+  </si>
+  <si>
+    <t>ZGH6AA</t>
+  </si>
+  <si>
+    <t>7WCP07</t>
+  </si>
+  <si>
+    <t>V46R01</t>
+  </si>
+  <si>
+    <t>72M701</t>
+  </si>
+  <si>
     <t>V4TC01</t>
   </si>
   <si>
-    <t>KJ8H01</t>
+    <t>V28Y01</t>
+  </si>
+  <si>
+    <t>V4R303</t>
+  </si>
+  <si>
+    <t>62A405</t>
+  </si>
+  <si>
+    <t>7W5C01</t>
+  </si>
+  <si>
+    <t>6MNY39</t>
+  </si>
+  <si>
+    <t>60MK01</t>
+  </si>
+  <si>
+    <t>KAJ701</t>
+  </si>
+  <si>
+    <t>V7XR01</t>
+  </si>
+  <si>
+    <t>V1AX01</t>
+  </si>
+  <si>
+    <t>Z87101</t>
+  </si>
+  <si>
+    <t>V4NW01</t>
+  </si>
+  <si>
+    <t>61EP01</t>
+  </si>
+  <si>
+    <t>V29101</t>
+  </si>
+  <si>
+    <t>6L4N01</t>
+  </si>
+  <si>
+    <t>7WJ801</t>
+  </si>
+  <si>
+    <t>V4NK01</t>
+  </si>
+  <si>
+    <t>7NR501</t>
+  </si>
+  <si>
+    <t>71JL01</t>
+  </si>
+  <si>
+    <t>KYNW01</t>
+  </si>
+  <si>
+    <t>6EM701</t>
+  </si>
+  <si>
+    <t>ZH0601</t>
+  </si>
+  <si>
+    <t>V71301</t>
+  </si>
+  <si>
+    <t>V3TA01</t>
+  </si>
+  <si>
+    <t>Z6G801</t>
+  </si>
+  <si>
+    <t>KY5J01</t>
+  </si>
+  <si>
+    <t>ZCAC01</t>
+  </si>
+  <si>
+    <t>KH9701</t>
+  </si>
+  <si>
+    <t>6K0G01</t>
+  </si>
+  <si>
+    <t>K1MH01</t>
+  </si>
+  <si>
+    <t>V29201</t>
+  </si>
+  <si>
+    <t>ZMY201</t>
+  </si>
+  <si>
+    <t>76X601</t>
+  </si>
+  <si>
+    <t>KFP501</t>
+  </si>
+  <si>
+    <t>76X201</t>
+  </si>
+  <si>
+    <t>V48M01</t>
+  </si>
+  <si>
+    <t>Z56H01</t>
+  </si>
+  <si>
+    <t>ZM7A01</t>
+  </si>
+  <si>
+    <t>6H9K01</t>
+  </si>
+  <si>
+    <t>6KF501</t>
+  </si>
+  <si>
+    <t>ZR0N01</t>
+  </si>
+  <si>
+    <t>69RT01</t>
+  </si>
+  <si>
+    <t>K2W901</t>
+  </si>
+  <si>
+    <t>ZN9H01</t>
+  </si>
+  <si>
+    <t>63WY01</t>
+  </si>
+  <si>
+    <t>6AWM01</t>
+  </si>
+  <si>
+    <t>V7Y701</t>
+  </si>
+  <si>
+    <t>V12F01</t>
+  </si>
+  <si>
+    <t>616402</t>
+  </si>
+  <si>
+    <t>V29001</t>
+  </si>
+  <si>
+    <t>V4NM01</t>
+  </si>
+  <si>
+    <t>6L4P01</t>
+  </si>
+  <si>
+    <t>6KAK01</t>
+  </si>
+  <si>
+    <t>ZK4K01</t>
+  </si>
+  <si>
+    <t>ZY0R01</t>
+  </si>
+  <si>
+    <t>ZR1601</t>
   </si>
   <si>
     <t>V12G01</t>
   </si>
   <si>
-    <t>69RT01</t>
-  </si>
-  <si>
-    <t>7W5C01</t>
-  </si>
-  <si>
-    <t>V16H11</t>
-  </si>
-  <si>
-    <t>71JL01</t>
-  </si>
-  <si>
-    <t>V71301</t>
-  </si>
-  <si>
-    <t>V29001</t>
-  </si>
-  <si>
-    <t>VCX001</t>
-  </si>
-  <si>
-    <t>KF5441</t>
-  </si>
-  <si>
-    <t>6EM701</t>
-  </si>
-  <si>
-    <t>6MNY39</t>
-  </si>
-  <si>
-    <t>VCWG3W</t>
-  </si>
-  <si>
-    <t>V20Q03</t>
-  </si>
-  <si>
-    <t>KNXW41</t>
-  </si>
-  <si>
-    <t>V68K07</t>
-  </si>
-  <si>
-    <t>K4XH01</t>
+    <t>ZWGP01</t>
+  </si>
+  <si>
+    <t>VAGH01</t>
   </si>
   <si>
     <t>KPR601</t>
   </si>
   <si>
-    <t>7WCP07</t>
-  </si>
-  <si>
-    <t>7WJ801</t>
+    <t>7JHT01</t>
   </si>
   <si>
     <t>V73501</t>
   </si>
   <si>
-    <t>KYNW01</t>
-  </si>
-  <si>
-    <t>62A405</t>
-  </si>
-  <si>
-    <t>6K0G01</t>
-  </si>
-  <si>
-    <t>V48M01</t>
-  </si>
-  <si>
-    <t>K1MH01</t>
-  </si>
-  <si>
-    <t>76X601</t>
-  </si>
-  <si>
-    <t>ZMY201</t>
-  </si>
-  <si>
-    <t>72M701</t>
-  </si>
-  <si>
-    <t>V19320</t>
-  </si>
-  <si>
-    <t>6L4N01</t>
-  </si>
-  <si>
-    <t>V7Y701</t>
-  </si>
-  <si>
-    <t>ZY0R01</t>
-  </si>
-  <si>
-    <t>ZH0601</t>
-  </si>
-  <si>
-    <t>6L4P01</t>
-  </si>
-  <si>
-    <t>KGMR04</t>
-  </si>
-  <si>
-    <t>ZGH6AA</t>
-  </si>
-  <si>
-    <t>KEX901</t>
-  </si>
-  <si>
-    <t>V4R303</t>
-  </si>
-  <si>
-    <t>V16K01</t>
-  </si>
-  <si>
-    <t>7NR501</t>
-  </si>
-  <si>
-    <t>Z87101</t>
-  </si>
-  <si>
-    <t>6CLW01</t>
-  </si>
-  <si>
-    <t>KY5J01</t>
-  </si>
-  <si>
-    <t>V1AX01</t>
-  </si>
-  <si>
-    <t>61EP01</t>
-  </si>
-  <si>
-    <t>7LYW01</t>
-  </si>
-  <si>
-    <t>Z6G801</t>
-  </si>
-  <si>
-    <t>645J01</t>
-  </si>
-  <si>
-    <t>V19P01</t>
-  </si>
-  <si>
-    <t>V46R01</t>
-  </si>
-  <si>
-    <t>V29201</t>
-  </si>
-  <si>
-    <t>V17510</t>
-  </si>
-  <si>
-    <t>Z56H01</t>
-  </si>
-  <si>
-    <t>V3TA01</t>
-  </si>
-  <si>
-    <t>ZR0N01</t>
-  </si>
-  <si>
-    <t>ZN9H01</t>
-  </si>
-  <si>
-    <t>616402</t>
-  </si>
-  <si>
-    <t>K2W901</t>
-  </si>
-  <si>
-    <t>7KYL02</t>
-  </si>
-  <si>
-    <t>6KF501</t>
-  </si>
-  <si>
-    <t>V29101</t>
-  </si>
-  <si>
-    <t>V7XR01</t>
-  </si>
-  <si>
-    <t>6AWM01</t>
-  </si>
-  <si>
-    <t>6H9K01</t>
-  </si>
-  <si>
-    <t>V4NM01</t>
-  </si>
-  <si>
-    <t>6FW203</t>
-  </si>
-  <si>
-    <t>Z9FF0A</t>
-  </si>
-  <si>
-    <t>KAJ701</t>
-  </si>
-  <si>
-    <t>60MK01</t>
-  </si>
-  <si>
-    <t>VAGH01</t>
-  </si>
-  <si>
-    <t>KH9701</t>
-  </si>
-  <si>
-    <t>KFP501</t>
-  </si>
-  <si>
-    <t>76X201</t>
-  </si>
-  <si>
-    <t>6KAK01</t>
-  </si>
-  <si>
-    <t>ZR1601</t>
-  </si>
-  <si>
-    <t>63WY01</t>
-  </si>
-  <si>
-    <t>V28Y01</t>
-  </si>
-  <si>
-    <t>ZM7A01</t>
-  </si>
-  <si>
-    <t>ZK4K01</t>
-  </si>
-  <si>
-    <t>V12F01</t>
-  </si>
-  <si>
-    <t>V4NK01</t>
-  </si>
-  <si>
-    <t>V4NW01</t>
-  </si>
-  <si>
-    <t>V82P01</t>
-  </si>
-  <si>
-    <t>7JHT01</t>
-  </si>
-  <si>
-    <t>ZCAC01</t>
-  </si>
-  <si>
-    <t>ZWGP01</t>
+    <t>2240349</t>
+  </si>
+  <si>
+    <t>1674712</t>
+  </si>
+  <si>
+    <t>1202464</t>
   </si>
   <si>
     <t>2111904</t>
@@ -319,253 +328,253 @@
     <t>1580802</t>
   </si>
   <si>
-    <t>1202464</t>
+    <t>1487180</t>
+  </si>
+  <si>
+    <t>51532</t>
+  </si>
+  <si>
+    <t>1394519</t>
   </si>
   <si>
     <t>882506</t>
   </si>
   <si>
+    <t>2365021</t>
+  </si>
+  <si>
+    <t>1538354</t>
+  </si>
+  <si>
+    <t>1440486</t>
+  </si>
+  <si>
+    <t>1674910</t>
+  </si>
+  <si>
+    <t>1417302</t>
+  </si>
+  <si>
+    <t>51573</t>
+  </si>
+  <si>
+    <t>2677672</t>
+  </si>
+  <si>
+    <t>2313708</t>
+  </si>
+  <si>
     <t>711267</t>
   </si>
   <si>
-    <t>2240349</t>
+    <t>847517</t>
+  </si>
+  <si>
+    <t>2717015</t>
+  </si>
+  <si>
+    <t>2422566</t>
+  </si>
+  <si>
+    <t>2702744</t>
+  </si>
+  <si>
+    <t>2085231</t>
+  </si>
+  <si>
+    <t>741967</t>
+  </si>
+  <si>
+    <t>2601961</t>
+  </si>
+  <si>
+    <t>2313401</t>
+  </si>
+  <si>
+    <t>1509512</t>
+  </si>
+  <si>
+    <t>2608503</t>
+  </si>
+  <si>
+    <t>1295765</t>
+  </si>
+  <si>
+    <t>899070</t>
+  </si>
+  <si>
+    <t>2515245</t>
+  </si>
+  <si>
+    <t>557413</t>
+  </si>
+  <si>
+    <t>1332246</t>
+  </si>
+  <si>
+    <t>48074</t>
+  </si>
+  <si>
+    <t>886267</t>
+  </si>
+  <si>
+    <t>2531697</t>
+  </si>
+  <si>
+    <t>2480705</t>
+  </si>
+  <si>
+    <t>126581</t>
+  </si>
+  <si>
+    <t>1295708</t>
+  </si>
+  <si>
+    <t>1066711</t>
+  </si>
+  <si>
+    <t>1592831</t>
+  </si>
+  <si>
+    <t>47936</t>
+  </si>
+  <si>
+    <t>1484641</t>
+  </si>
+  <si>
+    <t>1234897</t>
+  </si>
+  <si>
+    <t>2421774</t>
+  </si>
+  <si>
+    <t>789727</t>
+  </si>
+  <si>
+    <t>1802321</t>
+  </si>
+  <si>
+    <t>2664365</t>
+  </si>
+  <si>
+    <t>2672988</t>
+  </si>
+  <si>
+    <t>1677137</t>
+  </si>
+  <si>
+    <t>2421766</t>
+  </si>
+  <si>
+    <t>502443</t>
+  </si>
+  <si>
+    <t>2171940</t>
+  </si>
+  <si>
+    <t>1027473</t>
+  </si>
+  <si>
+    <t>1689157</t>
+  </si>
+  <si>
+    <t>1295716</t>
+  </si>
+  <si>
+    <t>1829514</t>
+  </si>
+  <si>
+    <t>1295724</t>
+  </si>
+  <si>
+    <t>2240331</t>
+  </si>
+  <si>
+    <t>1295690</t>
+  </si>
+  <si>
+    <t>2531739</t>
+  </si>
+  <si>
+    <t>1717016</t>
+  </si>
+  <si>
+    <t>1802354</t>
+  </si>
+  <si>
+    <t>1583426</t>
+  </si>
+  <si>
+    <t>999565</t>
+  </si>
+  <si>
+    <t>2083780</t>
   </si>
   <si>
     <t>637025</t>
   </si>
   <si>
-    <t>2717015</t>
-  </si>
-  <si>
-    <t>1394519</t>
-  </si>
-  <si>
-    <t>1234897</t>
-  </si>
-  <si>
-    <t>2664365</t>
+    <t>1898725</t>
+  </si>
+  <si>
+    <t>1898774</t>
+  </si>
+  <si>
+    <t>410712</t>
+  </si>
+  <si>
+    <t>2694875</t>
+  </si>
+  <si>
+    <t>1596220</t>
+  </si>
+  <si>
+    <t>579490</t>
   </si>
   <si>
     <t>47860</t>
   </si>
   <si>
-    <t>2702744</t>
-  </si>
-  <si>
-    <t>2365021</t>
-  </si>
-  <si>
-    <t>789727</t>
-  </si>
-  <si>
-    <t>2083871</t>
-  </si>
-  <si>
-    <t>2422566</t>
-  </si>
-  <si>
-    <t>2601961</t>
-  </si>
-  <si>
-    <t>1538354</t>
+    <t>1027507</t>
+  </si>
+  <si>
+    <t>1066729</t>
+  </si>
+  <si>
+    <t>971473</t>
+  </si>
+  <si>
+    <t>1484625</t>
+  </si>
+  <si>
+    <t>1898790</t>
+  </si>
+  <si>
+    <t>2083798</t>
+  </si>
+  <si>
+    <t>1898782</t>
+  </si>
+  <si>
+    <t>2734507</t>
   </si>
   <si>
     <t>2368694</t>
   </si>
   <si>
-    <t>1509512</t>
-  </si>
-  <si>
-    <t>1592831</t>
+    <t>1438787</t>
   </si>
   <si>
     <t>2641884</t>
   </si>
   <si>
-    <t>2421774</t>
-  </si>
-  <si>
-    <t>557413</t>
-  </si>
-  <si>
-    <t>1027473</t>
-  </si>
-  <si>
-    <t>2531739</t>
-  </si>
-  <si>
-    <t>1689157</t>
-  </si>
-  <si>
-    <t>1295724</t>
-  </si>
-  <si>
-    <t>1829514</t>
-  </si>
-  <si>
-    <t>1295765</t>
-  </si>
-  <si>
-    <t>51532</t>
-  </si>
-  <si>
-    <t>1066711</t>
-  </si>
-  <si>
-    <t>2694875</t>
-  </si>
-  <si>
-    <t>1898790</t>
-  </si>
-  <si>
-    <t>1802321</t>
-  </si>
-  <si>
-    <t>1066729</t>
-  </si>
-  <si>
-    <t>2085231</t>
-  </si>
-  <si>
-    <t>2166833</t>
-  </si>
-  <si>
-    <t>2313708</t>
-  </si>
-  <si>
-    <t>2515245</t>
-  </si>
-  <si>
-    <t>1487180</t>
-  </si>
-  <si>
-    <t>1484641</t>
-  </si>
-  <si>
-    <t>741967</t>
-  </si>
-  <si>
-    <t>2421766</t>
-  </si>
-  <si>
-    <t>2531697</t>
-  </si>
-  <si>
-    <t>126581</t>
-  </si>
-  <si>
-    <t>1440486</t>
-  </si>
-  <si>
-    <t>1677137</t>
-  </si>
-  <si>
-    <t>51573</t>
-  </si>
-  <si>
-    <t>2313401</t>
-  </si>
-  <si>
-    <t>2608503</t>
-  </si>
-  <si>
-    <t>1295716</t>
-  </si>
-  <si>
-    <t>1674910</t>
-  </si>
-  <si>
-    <t>1717016</t>
-  </si>
-  <si>
-    <t>2672988</t>
-  </si>
-  <si>
-    <t>2083780</t>
-  </si>
-  <si>
-    <t>1898774</t>
-  </si>
-  <si>
-    <t>579490</t>
-  </si>
-  <si>
-    <t>1898725</t>
-  </si>
-  <si>
-    <t>1417302</t>
-  </si>
-  <si>
-    <t>999565</t>
-  </si>
-  <si>
-    <t>1295708</t>
-  </si>
-  <si>
-    <t>410712</t>
-  </si>
-  <si>
-    <t>1583426</t>
-  </si>
-  <si>
-    <t>1027507</t>
-  </si>
-  <si>
-    <t>847517</t>
-  </si>
-  <si>
-    <t>886267</t>
-  </si>
-  <si>
-    <t>48074</t>
-  </si>
-  <si>
-    <t>2734507</t>
-  </si>
-  <si>
-    <t>2171940</t>
-  </si>
-  <si>
-    <t>2240331</t>
-  </si>
-  <si>
-    <t>1295690</t>
-  </si>
-  <si>
-    <t>971473</t>
-  </si>
-  <si>
-    <t>2083798</t>
-  </si>
-  <si>
-    <t>899070</t>
-  </si>
-  <si>
-    <t>1802354</t>
-  </si>
-  <si>
-    <t>1484625</t>
-  </si>
-  <si>
-    <t>1596220</t>
-  </si>
-  <si>
-    <t>47936</t>
-  </si>
-  <si>
-    <t>2480705</t>
-  </si>
-  <si>
-    <t>2677672</t>
-  </si>
-  <si>
-    <t>1438787</t>
-  </si>
-  <si>
-    <t>502443</t>
-  </si>
-  <si>
-    <t>1898782</t>
+    <t>Clinique For Men Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting Foundation + Concealer</t>
+  </si>
+  <si>
+    <t>Clinique for Men Anti-Age Eye Cream</t>
   </si>
   <si>
     <t xml:space="preserve">Clinique For Men Super Energizer Anti-Fatigue Depuffing Eye Gel </t>
@@ -574,274 +583,271 @@
     <t>Clinique For Men Oil-Free Moisturizer</t>
   </si>
   <si>
-    <t>Clinique for Men Anti-Age Eye Cream</t>
+    <t>High Impact Waterproof Mascara</t>
+  </si>
+  <si>
+    <t>Blended Face Powder</t>
+  </si>
+  <si>
+    <t>Quickliner For Eyes Intense Eyeliner</t>
   </si>
   <si>
     <t>Clinique For Men Broad Spectrum SPF 21 Moisturizer</t>
   </si>
   <si>
+    <t>Even Better All-Over Concealer + Eraser</t>
+  </si>
+  <si>
+    <t>Dramatically Different Lipstick Shaping Lip Colour</t>
+  </si>
+  <si>
+    <t>High Impact Extreme Volume Mascara</t>
+  </si>
+  <si>
+    <t>Cheek Pop Powder Blush</t>
+  </si>
+  <si>
+    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Stay-Matte Sheer Pressed Powder</t>
+  </si>
+  <si>
+    <t>High Impact High-Fi Full Volume Mascara</t>
+  </si>
+  <si>
+    <t>Moisture Surge Sheertint Hydrator Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>High Impact Mascara</t>
+  </si>
+  <si>
+    <t>True Bronze Pressed Powder Bronzer</t>
+  </si>
+  <si>
+    <t>All About Shadow Single</t>
+  </si>
+  <si>
+    <t>Even Better Clinical Serum Foundation Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>All About Shadow Octet</t>
+  </si>
+  <si>
+    <t>Lash Power Mascara Long-Wearing Formula</t>
+  </si>
+  <si>
+    <t>Lash Building Primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique Pop Plush Creamy Lip Gloss </t>
+  </si>
+  <si>
+    <t>Even Better Clinical Radical Dark Spot Corrector + Interrupter</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting Powder Foundation + Concealer</t>
+  </si>
+  <si>
+    <t>Moisture Surge CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Redness Solutions Instant Relief Mineral Pressed Powder With Probiotic Technology</t>
+  </si>
+  <si>
     <t>High Impact Zero Gravity Mascara</t>
   </si>
   <si>
-    <t>Clinique For Men Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+    <t>All About Clean Liquid Facial Soap</t>
+  </si>
+  <si>
+    <t>High Impact Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>Quickliner For Eyes Eyeliner</t>
+  </si>
+  <si>
+    <t>All About Shadow Primer for Eyes</t>
+  </si>
+  <si>
+    <t>Even Better Makeup Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips </t>
+  </si>
+  <si>
+    <t>Take The Day Off Cleansing Balm</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair Broad Spectrum SPF 30 Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Lotion+</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair Wrinkle Correcting Serum</t>
+  </si>
+  <si>
+    <t>All About Eyes Eye Cream with Vitamin C</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 2</t>
+  </si>
+  <si>
+    <t>Redness Solutions Soothing Cleanser With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Acne Solutions Clinical Clearing Gel</t>
+  </si>
+  <si>
+    <t>7 Day Scrub Cream Rinse-Off Formula</t>
+  </si>
+  <si>
+    <t>Moisture Surge Overnight Mask</t>
+  </si>
+  <si>
+    <t>All About Eyes Serum De-Puffing Eye Massage</t>
+  </si>
+  <si>
+    <t>All About Clean 2-in-1 Charcoal Mask + Scrub</t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>Acne Solutions Acne + Line Correcting Serum</t>
+  </si>
+  <si>
+    <t>Even Better Brightening Moisturizer SPF 20</t>
+  </si>
+  <si>
+    <t>Even Better Clinical Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t>Acne Solutions Cleansing Gel</t>
+  </si>
+  <si>
+    <t>All About Clean 2-in-1 Cleansing + Exfoliating Jelly</t>
+  </si>
+  <si>
+    <t>Repairwear Anti-Gravity Eye Cream</t>
+  </si>
+  <si>
+    <t>Moisture Surge Eye 96-Hour Hydro-Filler Concentrate</t>
+  </si>
+  <si>
+    <t>Acne Solutions Clarifying Lotion</t>
+  </si>
+  <si>
+    <t>Turnaround Accelerated Renewal Serum</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 3</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 4</t>
+  </si>
+  <si>
+    <t>Dramatically Different Hydrating Jelly</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1</t>
+  </si>
+  <si>
+    <t>Clarifying Do-Over Peel</t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Cream</t>
+  </si>
+  <si>
+    <t>Take the Day Off Micellar Cleansing Towelettes for Face &amp; Eyes</t>
+  </si>
+  <si>
+    <t>Take The Day Off Cleansing Oil</t>
+  </si>
+  <si>
+    <t>City Block Sheer Oil-Free Daily Face Protector Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Scrub</t>
+  </si>
+  <si>
+    <t>Deep Comfort Body Butter</t>
+  </si>
+  <si>
+    <t>Clinique Pep-Start Daily UV Protector Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>Clinique Fresh Pressed Daily Booster with Pure Vitamin C 10%</t>
+  </si>
+  <si>
+    <t>Sparkle Skin Body Exfoliator</t>
+  </si>
+  <si>
+    <t>Sparkle Skin Body Exfoliating Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture Surge Broad Spectrum SPF 28 Sheer Hydrator </t>
+  </si>
+  <si>
+    <t>Clinique For Men Anti-Age Moisturizer</t>
+  </si>
+  <si>
+    <t>Exfoliating Scrub</t>
+  </si>
+  <si>
+    <t>All About Clean Rinse-Off Foaming Cleanser</t>
+  </si>
+  <si>
+    <t>Acne Solutions Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Relief Cream</t>
+  </si>
+  <si>
+    <t>All About Eyes Rich Eye Cream with Hyaluronic Acid</t>
+  </si>
+  <si>
+    <t>Repairwear Laser Focus Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Moisture Surge Hydrating Supercharged Concentrate</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions Self-Heating Blackhead Extractor</t>
   </si>
   <si>
     <t>Deep Comfort Body Moisture</t>
   </si>
   <si>
-    <t>Deep Comfort Body Butter</t>
-  </si>
-  <si>
-    <t>All About Shadow Primer for Eyes</t>
-  </si>
-  <si>
-    <t>Quickliner For Eyes Intense Eyeliner</t>
-  </si>
-  <si>
-    <t>All About Eyes Serum De-Puffing Eye Massage</t>
-  </si>
-  <si>
-    <t>Even Better Brightening Moisturizer SPF 20</t>
-  </si>
-  <si>
-    <t>All About Clean Rinse-Off Foaming Cleanser</t>
-  </si>
-  <si>
-    <t>All About Shadow Octet</t>
-  </si>
-  <si>
-    <t>Even Better All-Over Concealer + Eraser</t>
-  </si>
-  <si>
-    <t>Dramatically Different Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>Even Better Makeup Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>All About Shadow Single</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Mascara</t>
-  </si>
-  <si>
-    <t>Even Better Clinical Serum Foundation Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique Pop Plush Creamy Lip Gloss </t>
-  </si>
-  <si>
-    <t>Dramatically Different Lipstick Shaping Lip Colour</t>
+    <t>Clinique Fresh Pressed Renewing Powder Cleanser with Pure Vitamin C</t>
+  </si>
+  <si>
+    <t>Take The Day Off Facial Cleansing Mousse</t>
   </si>
   <si>
     <t>Moisture Surge Intense 72H Lipid-Replenishing Hydrator</t>
   </si>
   <si>
-    <t>Moisture Surge CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>Acne Solutions Clinical Clearing Gel</t>
+    <t>Even Better Eyes Dark Circle Corrector</t>
   </si>
   <si>
     <t>Take The Day Off Charcoal Cleansing Balm</t>
   </si>
   <si>
-    <t>All About Clean 2-in-1 Charcoal Mask + Scrub</t>
-  </si>
-  <si>
-    <t>Quickliner For Eyes Eyeliner</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Clarifying Lotion</t>
-  </si>
-  <si>
-    <t>Clarifying Do-Over Peel</t>
-  </si>
-  <si>
-    <t>Turnaround&amp;trade; Accelerated Renewal Serum</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 4</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
-  </si>
-  <si>
-    <t>Redness Solutions Instant Relief Mineral Pressed Powder With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>Blended Face Powder</t>
-  </si>
-  <si>
-    <t>Redness Solutions Soothing Cleanser With Probiotic Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moisture Surge Broad Spectrum SPF 28 Sheer Hydrator </t>
-  </si>
-  <si>
-    <t>Moisture Surge Hydrating Supercharged Concentrate</t>
-  </si>
-  <si>
-    <t>Acne Solutions Acne + Line Correcting Serum</t>
-  </si>
-  <si>
-    <t>Redness Solutions Daily Relief Cream</t>
-  </si>
-  <si>
-    <t>Lash Power Mascara Long-Wearing Formula</t>
-  </si>
-  <si>
-    <t>Beyond Perfecting Powder Foundation + Concealer</t>
-  </si>
-  <si>
-    <t>Moisture Surge Sheertint Hydrator Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>High Impact Easy Liquid Eyeliner</t>
-  </si>
-  <si>
-    <t>High Impact Waterproof Mascara</t>
-  </si>
-  <si>
-    <t>Moisture Surge&amp;trade; Overnight Mask</t>
-  </si>
-  <si>
-    <t>Dramatically Different Moisturizing Lotion+</t>
-  </si>
-  <si>
-    <t>Lash Building Primer</t>
-  </si>
-  <si>
-    <t>All About Clean 2-in-1 Cleansing + Exfoliating Jelly</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>All About Eyes Eye Cream with Vitamin C</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Extreme Volume Mascara</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Cleansing Gel</t>
-  </si>
-  <si>
-    <t>Stay-Matte Sheer Pressed Powder</t>
-  </si>
-  <si>
-    <t>Even Better Clinical Radical Dark Spot Corrector + Interrupter</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 3</t>
-  </si>
-  <si>
-    <t>Cheek Pop Powder Blush</t>
-  </si>
-  <si>
-    <t>Dramatically Different&amp;trade; Moisturizing Cream</t>
-  </si>
-  <si>
-    <t>Even Better Clinical Brightening Moisturizer</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Scrub</t>
-  </si>
-  <si>
-    <t>Clinique Fresh Pressed Daily Booster with Pure Vitamin C 10%</t>
-  </si>
-  <si>
-    <t>Exfoliating Scrub</t>
-  </si>
-  <si>
-    <t>Clinique Pep-Start Daily UV Protector Broad Spectrum SPF 50</t>
-  </si>
-  <si>
-    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 2</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair Broad Spectrum SPF 30 Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Sparkle Skin&amp;trade; Body Exfoliating Cream</t>
-  </si>
-  <si>
-    <t>Take The Day Off&amp;trade; Cleansing Oil</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Cleansing Foam</t>
-  </si>
-  <si>
-    <t>True Bronze Pressed Powder Bronzer</t>
-  </si>
-  <si>
-    <t>Beyond Perfecting Foundation + Concealer</t>
-  </si>
-  <si>
-    <t>Take The Day Off&amp;trade; Cleansing Balm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips </t>
-  </si>
-  <si>
-    <t>NEW Take The Day Off Facial Cleansing Mousse</t>
-  </si>
-  <si>
-    <t>Moisture Surge Eye 96-Hour Hydro-Filler Concentrate</t>
-  </si>
-  <si>
-    <t>Dramatically Different Hydrating Jelly</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 1</t>
-  </si>
-  <si>
-    <t>All About Eyes Rich Eye Cream with Hyaluronic Acid</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions Self-Heating Blackhead Extractor</t>
-  </si>
-  <si>
-    <t>Sparkle Skin&amp;trade; Body Exfoliator</t>
-  </si>
-  <si>
-    <t>All About Clean Liquid Facial Soap</t>
-  </si>
-  <si>
-    <t>Take the Day Off Micellar Cleansing Towelettes for Face &amp; Eyes</t>
-  </si>
-  <si>
-    <t>Repairwear Laser Focus&amp;trade; Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>Clinique For Men Anti-Age Moisturizer</t>
-  </si>
-  <si>
-    <t>7 Day Scrub Cream Rinse-Off Formula</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair Wrinkle Correcting Serum</t>
-  </si>
-  <si>
-    <t>High Impact High-Fi Full Volume Mascara</t>
-  </si>
-  <si>
-    <t>Even Better Eyes Dark Circle Corrector</t>
-  </si>
-  <si>
-    <t>Repairwear Anti-Gravity Eye Cream</t>
-  </si>
-  <si>
-    <t>Clinique Fresh Pressed Renewing Powder Cleanser with Pure Vitamin C</t>
+    <t>Clinique For Menâ„¢ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Clinique For Men Anti-Age Eye Cream</t>
   </si>
   <si>
     <t>Clinique For Men Super Energizer Anti-Fatigue Depuffing Eye Gel</t>
@@ -850,169 +856,160 @@
     <t>Clinique For Menâ„¢ Oil-Free Moisturizer</t>
   </si>
   <si>
-    <t>Clinique For Men Anti-Age Eye Cream</t>
+    <t>Quicklinerâ„¢ For Eyes Intense Eyeliner</t>
   </si>
   <si>
     <t>Broad Spectrum SPF 21 Moisturizer</t>
   </si>
   <si>
-    <t>High Impact Mascara</t>
-  </si>
-  <si>
-    <t>Clinique For Menâ„¢ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+    <t>Even Betterâ„¢ All-Over Concealer + Eraser</t>
+  </si>
+  <si>
+    <t>Cheek Pop Blush</t>
+  </si>
+  <si>
+    <t>High Impact High-Fiâ„¢ Full Volume Mascara</t>
+  </si>
+  <si>
+    <t>Moisture Surgeâ„¢ Sheertint Hydrator Broad Spectrum SPF 25 Tinted Moisturizer</t>
   </si>
   <si>
     <t>All About Shadow Single Eye Shadow</t>
   </si>
   <si>
-    <t>Quicklinerâ„¢ For Eyes Intense Eyeliner</t>
+    <t>Even Better Clinicalâ„¢ Serum Foundation Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>All About Shadow 8-Pan Palette</t>
+  </si>
+  <si>
+    <t>Pop Plushâ„¢ Creamy Lip Gloss</t>
+  </si>
+  <si>
+    <t>Even Better Clinicalâ„¢ Radical Dark Spot Corrector + Interrupter Serum</t>
+  </si>
+  <si>
+    <t>Mini Smart Clinical Repairâ„¢ Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Redness Solutions Instant Relief Mineral Pressed Powder</t>
+  </si>
+  <si>
+    <t>All About Cleanâ„¢ Liquid Facial Soap</t>
+  </si>
+  <si>
+    <t>High Impactâ„¢ Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>Even Betterâ„¢ Makeup Broad Spectrum SPF 15 Foundation</t>
+  </si>
+  <si>
+    <t>Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips</t>
+  </si>
+  <si>
+    <t>Take The Day Off Cleansing Balm Makeup Remover</t>
+  </si>
+  <si>
+    <t>Smart Clinical Repair Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Smart Clinical Repair Wrinkle Correcting Serum</t>
+  </si>
+  <si>
+    <t>Redness Solutions Soothing Cleanser</t>
+  </si>
+  <si>
+    <t>Acne Solutionsâ„¢ Clinical Clearing Gel</t>
+  </si>
+  <si>
+    <t>7 Day Face Scrub Cream Rinse-Off Formula</t>
+  </si>
+  <si>
+    <t>Moisture Surgeâ„¢ Overnight Face Mask</t>
+  </si>
+  <si>
+    <t>All About Cleanâ„¢ 2-in-1 Charcoal Face Mask + Scrub</t>
   </si>
   <si>
     <t>Even Better Brightening Moisturizer SPF 20</t>
   </si>
   <si>
+    <t>Even Better Clinicalâ„¢ Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t>Acne Solutionsâ„¢ Cleansing Gel</t>
+  </si>
+  <si>
+    <t>Repairwearâ„¢ Anti-Gravity Eye Cream</t>
+  </si>
+  <si>
+    <t>Acne Solutionsâ„¢ Clarifying Lotion</t>
+  </si>
+  <si>
+    <t>Turnaroundâ„¢ Accelerated Renewal Serum</t>
+  </si>
+  <si>
+    <t>Take The Day Off Micellar Cleansing Towelettes for Face &amp; Eyes Makeup Remover</t>
+  </si>
+  <si>
+    <t>Take The Day Off Cleansing Oil Makeup Remover</t>
+  </si>
+  <si>
+    <t>City Block Sheer Oil-Free Daily Face Protector Broad Spectrum Sunscreen SPF 25 Primer</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Face Scrub</t>
+  </si>
+  <si>
+    <t>Pep-Start Daily UV Protector Face Sunscreen SPF 50</t>
+  </si>
+  <si>
+    <t>Fresh Pressed Daily Booster with Pure Vitamin C 10%</t>
+  </si>
+  <si>
+    <t>Sparkle Skinâ„¢ Body Exfoliator</t>
+  </si>
+  <si>
+    <t>Mini Moisture Surgeâ„¢ Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Menâ„¢ Anti-Age Moisturizer</t>
+  </si>
+  <si>
+    <t>Exfoliating Face Scrub</t>
+  </si>
+  <si>
     <t>Rinse-Off Foaming Cleanser</t>
   </si>
   <si>
-    <t>All About Shadow 8-Pan Palette</t>
-  </si>
-  <si>
-    <t>Even Betterâ„¢ All-Over Concealer + Eraser</t>
-  </si>
-  <si>
-    <t>Even Betterâ„¢ Makeup Broad Spectrum SPF 15 Foundation</t>
-  </si>
-  <si>
-    <t>Even Better Clinicalâ„¢ Serum Foundation Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Pop Plushâ„¢ Creamy Lip Gloss</t>
+    <t>Acne Solutionsâ„¢ Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Redness Solutions with Probiotic Technology Daily Relief Cream</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions Self-heating Blackhead Extractor</t>
+  </si>
+  <si>
+    <t>Fresh Pressed Renewing Powder Cleanser with Pure Vitamin C</t>
+  </si>
+  <si>
+    <t>Take The Day Offâ„¢ Facial Cleansing Mousse</t>
   </si>
   <si>
     <t>Moisture Surgeâ„¢ Intense 72H Lipid-Replenishing Hydrator Moisturizer</t>
   </si>
   <si>
-    <t>Acne Solutionsâ„¢ Clinical Clearing Gel</t>
-  </si>
-  <si>
     <t>Take The Day Offâ„¢ Charcoal Cleansing Balm Makeup Remover</t>
   </si>
   <si>
-    <t>All About Cleanâ„¢ 2-in-1 Charcoal Face Mask + Scrub</t>
-  </si>
-  <si>
-    <t>Acne Solutionsâ„¢ Clarifying Lotion</t>
-  </si>
-  <si>
-    <t>Turnaroundâ„¢ Accelerated Renewal Serum</t>
-  </si>
-  <si>
-    <t>Redness Solutions Instant Relief Mineral Pressed Powder</t>
-  </si>
-  <si>
-    <t>Redness Solutions Soothing Cleanser</t>
-  </si>
-  <si>
-    <t>Mini Moisture Surgeâ„¢ Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>Redness Solutions with Probiotic Technology Daily Relief Cream</t>
-  </si>
-  <si>
-    <t>Moisture Surgeâ„¢ Sheertint Hydrator Broad Spectrum SPF 25 Tinted Moisturizer</t>
-  </si>
-  <si>
-    <t>High Impactâ„¢ Easy Liquid Eyeliner</t>
-  </si>
-  <si>
-    <t>Moisture Surgeâ„¢ Overnight Face Mask</t>
-  </si>
-  <si>
-    <t>Smart Clinical Repair Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>High Impact Extreme Volume Mascara</t>
-  </si>
-  <si>
-    <t>Acne Solutionsâ„¢ Cleansing Gel</t>
-  </si>
-  <si>
-    <t>Even Better Clinicalâ„¢ Radical Dark Spot Corrector + Interrupter Serum</t>
-  </si>
-  <si>
-    <t>Mini Smart Clinical Repairâ„¢ Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Cheek Pop Blush</t>
-  </si>
-  <si>
-    <t>Dramatically Different Moisturizing Cream</t>
-  </si>
-  <si>
-    <t>Even Better Clinicalâ„¢ Brightening Moisturizer</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Face Scrub</t>
-  </si>
-  <si>
-    <t>Fresh Pressed Daily Booster with Pure Vitamin C 10%</t>
-  </si>
-  <si>
-    <t>Exfoliating Face Scrub</t>
-  </si>
-  <si>
-    <t>Pep-Start Daily UV Protector Face Sunscreen SPF 50</t>
-  </si>
-  <si>
-    <t>City Block Sheer Oil-Free Daily Face Protector Broad Spectrum Sunscreen SPF 25 Primer</t>
-  </si>
-  <si>
-    <t>Sparkle Skinâ„¢ Body Exfoliator</t>
-  </si>
-  <si>
-    <t>Take The Day Off Cleansing Oil Makeup Remover</t>
-  </si>
-  <si>
-    <t>Acne Solutionsâ„¢ Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Take The Day Off Cleansing Balm Makeup Remover</t>
-  </si>
-  <si>
-    <t>Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips</t>
-  </si>
-  <si>
-    <t>Take The Day Offâ„¢ Facial Cleansing Mousse</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions Self-heating Blackhead Extractor</t>
-  </si>
-  <si>
-    <t>All About Cleanâ„¢ Liquid Facial Soap</t>
-  </si>
-  <si>
-    <t>Take The Day Off Micellar Cleansing Towelettes for Face &amp; Eyes Makeup Remover</t>
-  </si>
-  <si>
-    <t>Repairwear Laser Focus Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>Clinique For Menâ„¢ Anti-Age Moisturizer</t>
-  </si>
-  <si>
-    <t>7 Day Face Scrub Cream Rinse-Off Formula</t>
-  </si>
-  <si>
-    <t>Smart Clinical Repair Wrinkle Correcting Serum</t>
-  </si>
-  <si>
-    <t>High Impact High-Fiâ„¢ Full Volume Mascara</t>
-  </si>
-  <si>
-    <t>Repairwearâ„¢ Anti-Gravity Eye Cream</t>
-  </si>
-  <si>
-    <t>Fresh Pressed Renewing Powder Cleanser with Pure Vitamin C</t>
+    <t>https://www.sephora.com/product/clinique-for-men-maximum-hydrator-72-hour-auto-replenishing-hydrator-P448561?skuId=2240349</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/beyond-perfecting-foundation-concealer-P393325?skuId=1674712</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clinique-for-men-super-energizer-anti-fatigue-depuffing-eye-gel-P435207?skuId=2111904</t>
@@ -1021,253 +1018,253 @@
     <t>https://www.sephora.com/product/oil-control-mattifying-moisturizer-P122683?skuId=1580802</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
+    <t>https://www.sephora.com/product/high-impact-waterproof-mascara-P377219?skuId=1487180</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/blended-face-powder-brush-P122668?skuId=51532</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/quickliner-for-eyes-intense-P305114?skuId=1394519</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/broad-spectrum-spf-21-moisturizer-P122806?skuId=882506</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/clinique-even-better-all-over-concealer-eraser-P461436?skuId=2365021</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-lotion-P381030?skuId=1538354</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/cheek-pop-P384996?skuId=1674910</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/stay-matte-sheer-pressed-powder-P122748?skuId=51573</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/high-impact-high-fi-tm-full-volume-mascara-P507084?skuId=2677672</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-moisture-surge-sheertint-hydrator-broad-spectrum-spf-25-P457692?skuId=2313708</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/high-impact-mascara-P122912?skuId=711267</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-for-men-maximum-hydrator-72-hour-auto-replenishing-hydrator-P448561?skuId=2240349</t>
+    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-serum-foundation-broad-spectrum-spf-25-P468639?skuId=2422566</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/lash-power-mascara-long-wearing-formula-P206900?skuId=2085231</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/lash-building-primer-P122866?skuId=741967</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-pop-plush-tm-creamy-lip-gloss-P501008?skuId=2601961</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-radical-dark-spot-corrector-interrupter-P455622?skuId=2313401</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30-P378639?skuId=1509512</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-instant-relief-mineral-pressed-powder-P277401?skuId=1295765</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/liquid-facial-soap-P139000?skuId=899070</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=1332246</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/take-the-day-off-makeup-remover-for-lids-lashes-lips-P122735?skuId=48074</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/take-the-day-off-cleansing-balm-P126301?skuId=886267</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-eye-cream-P479734?skuId=2531697</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-serum-P473267?skuId=2480705</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-eyes-P122774?skuId=126581</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clarifying-lotion-2-P122882?skuId=1295708</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-P385432?skuId=1592831</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/7-day-scrub-cream-rinse-off-formula-P122661?skuId=47936</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-overnight-mask-P377577?skuId=1484641</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-eyes-serum-de-puffing-eye-massage-P257537?skuId=1234897</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-charcoal-mask-scrub-P469452?skuId=2421774</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-cleansing-gel-P393501?skuId=1677137</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-cleansing-exfoliating-jelly-P469451?skuId=2421766</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/repairwear-anti-gravity-eye-lift-cream-P122727?skuId=502443</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-eye-96-hour-hydro-filler-concentrate-P443383?skuId=2171940</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-clarifying-lotion-P188307?skuId=1027473</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/turnaround-revitalizing-serum-P302900?skuId=1689157</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clarifying-lotion-3-P122881?skuId=1295716</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clarifying-lotion-1-0-twice-day-exfoliator-P409920?skuId=1829514</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clarifying-lotion-4-P122876?skuId=1295724</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-hydrating-jelly-P432241?skuId=2240331</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clarifying-lotion-1-P122651?skuId=1295690</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-clarifying-do-over-peel-P481668?skuId=2531739</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-cream-P398717?skuId=1717016</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/take-day-off-micellar-cleansing-towelettes-for-face-eyes-P406924?skuId=1802354</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/take-the-day-off-cleansing-oil-P384821?skuId=1583426</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/city-block-sheer-oil-free-daily-face-protector-spf-25-P196542?skuId=999565</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/blackhead-solutions-7-day-deep-pore-cleanse-scrub-P432242?skuId=2083780</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/deep-comfort-body-butter-P122654?skuId=637025</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/quickliner-for-eyes-intense-P305114?skuId=1394519</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-eyes-serum-de-puffing-eye-massage-P257537?skuId=1234897</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
+    <t>https://www.sephora.com/product/pep-start-daily-uv-protector-broad-spectrum-spf-50-P415773?skuId=1898725</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/fresh-pressed-daily-booster-with-pure-vitamin-c-10-P416824?skuId=1898774</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/sparkle-skin-body-exfoliator-P122749?skuId=410712</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/rinse-off-foaming-cleanser-P122762?skuId=47860</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-all-over-concealer-eraser-P461436?skuId=2365021</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=2083871</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-serum-foundation-broad-spectrum-spf-25-P468639?skuId=2422566</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-pop-plush-tm-creamy-lip-gloss-P501008?skuId=2601961</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-lotion-P381030?skuId=1538354</t>
+    <t>https://www.sephora.com/product/acne-solutions-cleansing-foam-P188309?skuId=1027507</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-daily-relief-cream-P201440?skuId=1066729</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-eyes-rich-P174502?skuId=971473</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/repairwear-laser-focus-wrinkle-correcting-eye-cream-P377576?skuId=1484625</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-hydrating-supercharged-concentrate-P417984?skuId=1898790</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/blackhead-solutions-self-heating-blackhead-extractor-P432243?skuId=2083798</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/fresh-pressed-renewing-powder-cleanser-P417323?skuId=1898782</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-take-day-off-tm-facial-cleansing-mousse-P510025?skuId=2734507</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clinique-moisture-surge-trade-intense-72h-lipid-replenishing-hydrator-P463613?skuId=2368694</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/moisture-surge-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30-P378639?skuId=1509512</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-P385432?skuId=1592831</t>
+    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clinique-take-day-off-charcoal-cleansing-balm-makeup-remover-P503747?skuId=2641884</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-charcoal-mask-scrub-P469452?skuId=2421774</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-clarifying-lotion-P188307?skuId=1027473</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-clarifying-do-over-peel-P481668?skuId=2531739</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/turnaround-revitalizing-serum-P302900?skuId=1689157</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clarifying-lotion-4-P122876?skuId=1295724</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clarifying-lotion-1-0-twice-day-exfoliator-P409920?skuId=1829514</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-instant-relief-mineral-pressed-powder-P277401?skuId=1295765</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/blended-face-powder-brush-P122668?skuId=51532</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisture-surge-hydrating-supercharged-concentrate-P417984?skuId=1898790</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-daily-relief-cream-P201440?skuId=1066729</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/lash-power-mascara-long-wearing-formula-P206900?skuId=2085231</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/beyond-perfecting-foundation-concealer-P393325?skuId=2166833</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-moisture-surge-sheertint-hydrator-broad-spectrum-spf-25-P457692?skuId=2313708</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-waterproof-mascara-P377219?skuId=1487180</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisture-surge-overnight-mask-P377577?skuId=1484641</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/lash-building-primer-P122866?skuId=741967</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-cleansing-exfoliating-jelly-P469451?skuId=2421766</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-eye-cream-P479734?skuId=2531697</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-eyes-P122774?skuId=126581</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-cleansing-gel-P393501?skuId=1677137</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/stay-matte-sheer-pressed-powder-P122748?skuId=51573</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-radical-dark-spot-corrector-interrupter-P455622?skuId=2313401</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clarifying-lotion-3-P122881?skuId=1295716</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/cheek-pop-P384996?skuId=1674910</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-cream-P398717?skuId=1717016</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/blackhead-solutions-7-day-deep-pore-cleanse-scrub-P432242?skuId=2083780</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/fresh-pressed-daily-booster-with-pure-vitamin-c-10-P416824?skuId=1898774</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/pep-start-daily-uv-protector-broad-spectrum-spf-50-P415773?skuId=1898725</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/city-block-sheer-oil-free-daily-face-protector-spf-25-P196542?skuId=999565</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clarifying-lotion-2-P122882?skuId=1295708</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/sparkle-skin-body-exfoliator-P122749?skuId=410712</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/take-the-day-off-cleansing-oil-P384821?skuId=1583426</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-cleansing-foam-P188309?skuId=1027507</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/take-the-day-off-cleansing-balm-P126301?skuId=886267</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/take-the-day-off-makeup-remover-for-lids-lashes-lips-P122735?skuId=48074</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-take-day-off-tm-facial-cleansing-mousse-P510025?skuId=2734507</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisture-surge-eye-96-hour-hydro-filler-concentrate-P443383?skuId=2171940</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-hydrating-jelly-P432241?skuId=2240331</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clarifying-lotion-1-P122651?skuId=1295690</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-eyes-rich-P174502?skuId=971473</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/blackhead-solutions-self-heating-blackhead-extractor-P432243?skuId=2083798</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/liquid-facial-soap-P139000?skuId=899070</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/take-day-off-micellar-cleansing-towelettes-for-face-eyes-P406924?skuId=1802354</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/repairwear-laser-focus-wrinkle-correcting-eye-cream-P377576?skuId=1484625</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/7-day-scrub-cream-rinse-off-formula-P122661?skuId=47936</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-serum-P473267?skuId=2480705</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-high-fi-tm-full-volume-mascara-P507084?skuId=2677672</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/repairwear-anti-gravity-eye-lift-cream-P122727?skuId=502443</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/fresh-pressed-renewing-powder-cleanser-P417323?skuId=1898782</t>
+    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/34817/makeup/foundations/beyond-perfectingtm-foundation-concealer?shade=CN_02_Breeze</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
@@ -1276,274 +1273,265 @@
     <t>https://www.clinique.com/product/1626/86689/mens/skin-care/moisturize-protect/clinique-for-mentm-oil-free-moisturizer</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
+    <t>https://www.clinique.com/product/1606/24805/makeup/mascara/high-impacttm-waterproof-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6271/makeup/powders/blended-face-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/12313/makeup/eyeliners/quicklinertm-for-eyes-intense-eyeliner</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1596/76702/makeup/concealers/even-bettertm-all-over-concealer-eraser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/60030/makeup/lipsticks/dramatically-differenttm-lipstick-shaping-lip-colour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/22759/makeup/mascara/high-impact-extreme-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/29770/makeup/blushers/cheek-poptm-powder-blush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/19517/makeup/foundations/bb-and-cc-cream/age-defense-bb-cream-broad-spectrum-spf-30?shade=Shade_02</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6069/makeup/powders/stay-matte-sheer-pressed-powder?shade=01_Stay_Buff</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/64320/makeup/foundations/bb-and-cc-cream/moisture-surgetm-sheertint-hydrator-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1594/5737/makeup/bronzers/true-bronzetm-pressed-powder-bronzer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27031/makeup/eye-shadows/all-about-shadowtm-single</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/80532/makeup/foundations/even-better-clinicaltm-serum-foundation-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/121426/makeup/eye-shadows/all-about-shadowtm-octet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58211/makeup/mascara/lash-powertm-mascara-long-wearing-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5236/makeup/mascara/lash-building-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1603/106865/makeup/lip-glosses/clinique-pop-plushtm-creamy-lip-gloss</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/68008/skincare/serum/even-better-clinicaltm-radical-dark-spot-corrector-interrupter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/37389/makeup/foundations/beyond-perfectingtm-powder-foundation-concealer?shade=0.25_Dune</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/25255/makeup/foundations/bb-and-cc-cream/moisture-surgetm-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16320/104214/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/12934/skincare/redness/redness-solutions-instant-relief-mineral-pressed-powder-with-probiotic-technology</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1606/93578/makeup/mascara/high-impact-zero-gravitytm-mascara</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
+    <t>https://www.clinique.com/product/1673/8279/skincare/cleansers-makeup-removers/all-about-cleantm-liquid-facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/101223/makeup/eyeliners/high-impacttm-easy-liquid-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/4770/makeup/eyeliners/quicklinertm-for-eyes-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27035/makeup/eye-shadows/all-about-shadowtm-primer-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/5276/makeup/foundations/even-bettertm-makeup-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5380/skincare/cleansers-makeup-removers/take-the-day-offtm-makeup-remover-for-lids-lashes-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/6424/skincare/makeup-removers/take-the-day-off-cleansing-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/123646/skincare/moisturizers/clinique-smart-clinical-repairtm-broad-spectrum-spf-30-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/94055/skincare/eye-care/clinique-smart-clinical-repairtm-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/26651/skincare/moisturizers/dramatically-different-moisturizing-lotiontm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/87057/skincare/serum/clinique-smart-clinical-repairtm-wrinkle-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/4769/skincare/eye-care/all-about-eyestm-eye-cream-with-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15502/skincare/exfoliators/clarifying-lotion-2/exfoliates-to-balance-dry-combination-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5800/skincare/redness/redness-solutions-soothing-cleanser-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1672/29793/skincare/acne/treatment-specialists/acne-solutionstm-clinical-clearing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5003/skincare/cleansers-makeup-removers/7-day-scrub-cream-rinse-off-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14706/24569/skincare/masks/moisture-surge-overnight-mask</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1667/9423/skincare/all-about-eyestm-serum-de-puffing-eye-massage</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83736/skincare/exfoliators/all-about-cleantm-2-in-1-charcoal-mask-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5047/skincare/moisturizers/dramatically-differenttm-moisturizing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/40880/skincare/acne/acne-solutionstm-acne-line-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106878/skincare/moisturizers/even-bettertm-brightening-moisturizer-spf-20</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106904/skincare/moisturizers/even-better-clinicaltm-brightening-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/34750/skincare/acne/acne-solutions-cleansing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83735/skincare/exfoliators/all-about-cleantm-2-in-1-cleansing-exfoliating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1676/32630/skincare/de-aging/repair-247/repairweartm-anti-gravity-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/64270/skincare/eye-care/moisture-surge-eyetm-96-hour-hydro-filler-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/4976/skincare/exfoliators/acne-solutions-clarifying-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1680/46673/skincare/dullness/daily-renewal/turnaround-accelerated-renewal-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15503/skincare/exfoliators/clarifying-lotion-3/exfoliates-to-balance-combination-oily-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/41982/skincare/exfoliators/clarifying-lotion-10-twice-a-day-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15504/3-step/step-2-exfoliate/clarifying-lotion-4/refreshing-exfoliator-for-oily-skin-types</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/58208/3-step/step-3-moisturize/dramatically-differenttm-hydrating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15501/3-step/step-2-exfoliate/clarifying-lotion-1/gently-comfortably-exfoliates-dry-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/103171/skincare/exfoliators/clarifying-do-over-peel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/34679/3-step/step-3-moisturize/dramatically-different-moisturizing-cream?size=50ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/40885/skincare/makeup-removers/take-the-day-offtm-micellar-cleansing-towelettes-for-face-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6555/skincare/cleansers-makeup-removers/take-the-day-off-cleansing-oil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5861/sun-protection-self-tanners/sun-protection/city-block-sheer-oil-free-daily-face-protector-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56035/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-7-day-deep-pore-cleanse-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6089/skincare/hand-body-care/deep-comforttm-body-butter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/47339/sun-protection-self-tanners/sun-protection/clinique-pep-starttm-daily-uv-protector-broad-spectrum-spf-50?size=1_fl._oz._%252F_30_ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/18919/43160/skincare/fresh-pressed/clinique-fresh-pressedtm-daily-booster-with-pure-vitamin-c-10</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5620/skincare/hand-body-care/sparkle-skin-body-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/4807/skincare/hand-body-care/sparkle-skin-body-exfoliating-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/115975/skincare/moisturizers/moisture-surgetm-broad-spectrum-spf-28-sheer-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/29405/mens/skin-care/moisturize-protect/clinique-for-mentm-anti-age-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/6277/skincare/exfoliators/exfoliating-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6254/skincare/cleansers-makeup-removers/all-about-cleantm-rinse-off-foaming-cleanser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5375/skincare/cleansers-makeup-removers/acne-solutions-cleansing-foam?size=1.7oz_%252F_50ml_-_Travel_Size</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6007/skincare/redness/redness-solutions-daily-relief-cream?size=1.7_oz_%252F_50_ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/15601/skincare/eye-care/all-about-eyestm-rich-eye-cream-with-hyaluronic-acid</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/37235/skincare/eye-care/repairwear-laser-focus-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/45043/skincare/moisturizers/moisture-surgetm-hydrating-supercharged-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56037/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-self-heating-blackhead-extractor</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1686/5192/skincare/hand-body-care/deep-comforttm-body-moisture</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1686/6089/skincare/hand-body-care/deep-comforttm-body-butter</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27035/makeup/eye-shadows/all-about-shadowtm-primer-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/12313/makeup/eyeliners/quicklinertm-for-eyes-intense-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1667/9423/skincare/all-about-eyestm-serum-de-puffing-eye-massage</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/106878/skincare/moisturizers/even-bettertm-brightening-moisturizer-spf-20</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/6254/skincare/cleansers-makeup-removers/all-about-cleantm-rinse-off-foaming-cleanser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/121426/makeup/eye-shadows/all-about-shadowtm-octet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1596/76702/makeup/concealers/even-bettertm-all-over-concealer-eraser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/5047/skincare/moisturizers/dramatically-differenttm-moisturizing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/5276/makeup/foundations/even-bettertm-makeup-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27031/makeup/eye-shadows/all-about-shadowtm-single</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/80532/makeup/foundations/even-better-clinicaltm-serum-foundation-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1603/106865/makeup/lip-glosses/clinique-pop-plushtm-creamy-lip-gloss</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/60030/makeup/lipsticks/dramatically-differenttm-lipstick-shaping-lip-colour</t>
+    <t>https://www.clinique.com/product/18919/43162/skincare/fresh-pressed/clinique-fresh-pressedtm-renewing-powder-cleanser-with-pure-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/121428/skincare/cleansers-makeup-removers/take-the-day-offtm-facial-cleansing-mousse</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1687/79628/skincare/moisturizers/moisture-surgetm-intense-72h-lipid-replenishing-hydrator</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/11480/25255/makeup/foundations/bb-and-cc-cream/moisture-surgetm-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1672/29793/skincare/acne/treatment-specialists/acne-solutionstm-clinical-clearing-gel</t>
+    <t>https://www.clinique.com/product/1683/22695/skincare/eye-care/even-better-eyestm-dark-circle-corrector</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/20011/106898/skincare/makeup-removers/take-the-day-offtm-charcoal-cleansing-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/83736/skincare/exfoliators/all-about-cleantm-2-in-1-charcoal-mask-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/4770/makeup/eyeliners/quicklinertm-for-eyes-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/4976/skincare/exfoliators/acne-solutions-clarifying-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/103171/skincare/exfoliators/clarifying-do-over-peel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1680/46673/skincare/dullness/daily-renewal/turnaround-accelerated-renewal-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1573/15504/3-step/step-2-exfoliate/clarifying-lotion-4/refreshing-exfoliator-for-oily-skin-types</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/41982/skincare/exfoliators/clarifying-lotion-10-twice-a-day-exfoliator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/12934/skincare/redness/redness-solutions-instant-relief-mineral-pressed-powder-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/6271/makeup/powders/blended-face-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/5800/skincare/redness/redness-solutions-soothing-cleanser-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/115975/skincare/moisturizers/moisture-surgetm-broad-spectrum-spf-28-sheer-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/45043/skincare/moisturizers/moisture-surgetm-hydrating-supercharged-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1668/40880/skincare/acne/acne-solutionstm-acne-line-correcting-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/6007/skincare/redness/redness-solutions-daily-relief-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/58211/makeup/mascara/lash-powertm-mascara-long-wearing-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/37389/makeup/foundations/beyond-perfectingtm-powder-foundation-concealer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/64320/makeup/foundations/bb-and-cc-cream/moisture-surgetm-sheertint-hydrator-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/101223/makeup/eyeliners/high-impacttm-easy-liquid-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/24805/makeup/mascara/high-impacttm-waterproof-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14706/24569/skincare/masks/moisture-surge-overnight-mask</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/26651/skincare/moisturizers/dramatically-different-moisturizing-lotiontm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5236/makeup/mascara/lash-building-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/83735/skincare/exfoliators/all-about-cleantm-2-in-1-cleansing-exfoliating-jelly</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/94055/skincare/eye-care/clinique-smart-clinical-repairtm-wrinkle-correcting-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/4769/skincare/eye-care/all-about-eyestm-eye-cream-with-vitamin-c</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/22759/makeup/mascara/high-impact-extreme-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1668/34750/skincare/acne/acne-solutions-cleansing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/6069/makeup/powders/stay-matte-sheer-pressed-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/68008/skincare/serum/even-better-clinicaltm-radical-dark-spot-corrector-interrupter</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16320/104214/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/15503/skincare/exfoliators/clarifying-lotion-3/exfoliates-to-balance-combination-oily-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/29770/makeup/blushers/cheek-poptm-powder-blush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1574/34679/3-step/step-3-moisturize/dramatically-different-moisturizing-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/106904/skincare/moisturizers/even-better-clinicaltm-brightening-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16741/56035/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-7-day-deep-pore-cleanse-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/18919/43160/skincare/fresh-pressed/clinique-fresh-pressedtm-daily-booster-with-pure-vitamin-c-10</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/6277/skincare/exfoliators/exfoliating-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/47339/sun-protection-self-tanners/sun-protection/clinique-pep-starttm-daily-uv-protector-broad-spectrum-spf-50</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/19517/makeup/foundations/bb-and-cc-cream/age-defense-bb-cream-broad-spectrum-spf-30</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/5861/sun-protection-self-tanners/sun-protection/city-block-sheer-oil-free-daily-face-protector-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/15502/skincare/exfoliators/clarifying-lotion-2/exfoliates-to-balance-dry-combination-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/123646/skincare/moisturizers/clinique-smart-clinical-repairtm-broad-spectrum-spf-30-wrinkle-correcting-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/4807/skincare/hand-body-care/sparkle-skin-body-exfoliating-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/6555/skincare/cleansers-makeup-removers/take-the-day-off-cleansing-oil</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5375/skincare/cleansers-makeup-removers/acne-solutions-cleansing-foam</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1594/5737/makeup/bronzers/true-bronzetm-pressed-powder-bronzer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/34817/makeup/foundations/beyond-perfectingtm-foundation-concealer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/6424/skincare/makeup-removers/take-the-day-off-cleansing-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5380/skincare/cleansers-makeup-removers/take-the-day-offtm-makeup-remover-for-lids-lashes-lips</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/121428/skincare/cleansers-makeup-removers/new-take-the-day-offtm-facial-cleansing-mousse</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/64270/skincare/eye-care/moisture-surge-eyetm-96-hour-hydro-filler-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1574/58208/3-step/step-3-moisturize/dramatically-differenttm-hydrating-jelly</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1573/15501/3-step/step-2-exfoliate/clarifying-lotion-1/gently-comfortably-exfoliates-dry-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/15601/skincare/eye-care/all-about-eyestm-rich-eye-cream-with-hyaluronic-acid</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16741/56037/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-self-heating-blackhead-extractor</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/5620/skincare/hand-body-care/sparkle-skin-body-exfoliator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/8279/skincare/cleansers-makeup-removers/all-about-cleantm-liquid-facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/40885/skincare/makeup-removers/take-the-day-offtm-micellar-cleansing-towelettes-for-face-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/37235/skincare/eye-care/repairwear-laser-focus-wrinkle-correcting-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/29405/mens/skin-care/moisturize-protect/clinique-for-mentm-anti-age-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5003/skincare/cleansers-makeup-removers/7-day-scrub-cream-rinse-off-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/87057/skincare/serum/clinique-smart-clinical-repairtm-wrinkle-correcting-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/22695/skincare/eye-care/even-better-eyestm-dark-circle-corrector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1676/32630/skincare/de-aging/repair-247/repairweartm-anti-gravity-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/18919/43162/skincare/fresh-pressed/clinique-fresh-pressedtm-renewing-powder-cleanser-with-pure-vitamin-c</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1939,7 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>184</v>
@@ -1960,10 +1948,10 @@
         <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1974,19 +1962,19 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2003,13 +1991,13 @@
         <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2020,19 +2008,19 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2043,19 +2031,19 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2066,19 +2054,19 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2089,19 +2077,19 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2109,22 +2097,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2132,22 +2120,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2155,7 +2143,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>96</v>
@@ -2164,13 +2152,13 @@
         <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2178,22 +2166,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2201,22 +2189,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2224,22 +2212,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2247,22 +2235,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2270,22 +2258,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
         <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2293,22 +2281,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2316,22 +2304,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2339,22 +2327,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C19">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2362,22 +2350,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C20">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2385,22 +2373,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C21">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
         <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2408,22 +2396,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C22">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2431,7 +2419,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>73</v>
@@ -2440,13 +2428,13 @@
         <v>205</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2454,22 +2442,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
         <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2477,7 +2465,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -2489,10 +2477,10 @@
         <v>207</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2500,22 +2488,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C26">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2523,22 +2511,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C27">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2546,7 +2534,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>92</v>
@@ -2555,13 +2543,13 @@
         <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2569,7 +2557,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -2581,10 +2569,10 @@
         <v>211</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2592,22 +2580,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C30">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2615,22 +2603,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2638,22 +2626,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C32">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2661,22 +2649,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2684,22 +2672,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>216</v>
       </c>
       <c r="E34" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2707,22 +2695,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>217</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2730,22 +2718,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2756,19 +2744,19 @@
         <v>131</v>
       </c>
       <c r="C37">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
         <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2779,19 +2767,19 @@
         <v>132</v>
       </c>
       <c r="C38">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2802,19 +2790,19 @@
         <v>133</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
         <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2822,22 +2810,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
         <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2845,22 +2833,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>223</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2868,7 +2856,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>100</v>
@@ -2880,10 +2868,10 @@
         <v>224</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2891,22 +2879,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
         <v>225</v>
       </c>
       <c r="E43" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2914,22 +2902,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
         <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2937,22 +2925,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2960,22 +2948,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2983,22 +2971,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C47">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
         <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3006,22 +2994,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>230</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3029,22 +3017,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
         <v>231</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3052,7 +3040,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -3064,10 +3052,10 @@
         <v>232</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3075,7 +3063,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51">
         <v>92</v>
@@ -3087,10 +3075,10 @@
         <v>304</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3098,7 +3086,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52">
         <v>100</v>
@@ -3110,10 +3098,10 @@
         <v>234</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3121,22 +3109,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
         <v>235</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3144,22 +3132,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
         <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3167,22 +3155,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
         <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3190,10 +3178,10 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
         <v>238</v>
@@ -3202,10 +3190,10 @@
         <v>307</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3213,22 +3201,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3236,22 +3224,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>240</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3259,22 +3247,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
         <v>241</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3282,22 +3270,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>242</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3305,22 +3293,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>243</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3328,22 +3316,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
         <v>244</v>
       </c>
       <c r="E62" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3351,22 +3339,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
         <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3374,22 +3362,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
         <v>246</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3397,22 +3385,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3420,7 +3408,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66">
         <v>100</v>
@@ -3432,585 +3420,585 @@
         <v>248</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C67">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>160</v>
       </c>
       <c r="C68">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>161</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E69" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C70">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E70" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C73">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E73" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E74" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C75">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C76">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E76" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C77">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E77" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C78">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E78" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E79" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E81" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E83" t="s">
         <v>323</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C84">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C85">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E85" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C86">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E86" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C87">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C88">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89">
         <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E89" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C91">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D91" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4021,19 +4009,19 @@
         <v>181</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
         <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4044,19 +4032,19 @@
         <v>182</v>
       </c>
       <c r="C93">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
         <v>274</v>
       </c>
       <c r="E93" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4067,19 +4055,19 @@
         <v>183</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D94" t="s">
         <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
